--- a/data/income_statement/2digits/size/32_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/32_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>32-Other manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>32-Other manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,833 +841,943 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2240782.46738</v>
+        <v>2282677.79061</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2029718.59645</v>
+        <v>2028414.32975</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2221836.28864</v>
+        <v>2278883.72949</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2466243.98553</v>
+        <v>2597171.5963</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2850477.67678</v>
+        <v>2960471.25857</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2724057.62879</v>
+        <v>2788426.79058</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2966357.613390001</v>
+        <v>3172662.18319</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2894565.21642</v>
+        <v>3239914.61853</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4007938.55393</v>
+        <v>4372774.641229999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6130494.742790001</v>
+        <v>6357174.72232</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7122867.10359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7589563.07746</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7508822.15</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1833465.35461</v>
+        <v>1853434.65324</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1582058.33884</v>
+        <v>1568262.16461</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1797418.31496</v>
+        <v>1793356.12117</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2029416.29904</v>
+        <v>2125943.23868</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2244200.61408</v>
+        <v>2314205.88136</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2058820.08034</v>
+        <v>2099379.5422</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2374724.91134</v>
+        <v>2509398.4971</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2127420.08919</v>
+        <v>2365545.12213</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2839467.37186</v>
+        <v>3097806.75392</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4290949.30197</v>
+        <v>4368944.27708</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5016571.79201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5262045.29949</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5346823.127</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>390620.50509</v>
+        <v>411113.0204099999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>426484.18811</v>
+        <v>438432.10263</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>402305.4055699999</v>
+        <v>464671.31189</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>412008.21933</v>
+        <v>445413.18227</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>584568.55648</v>
+        <v>625369.97175</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>642833.4135400001</v>
+        <v>666651.88109</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>568458.89989</v>
+        <v>640796.5308399999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>732882.79632</v>
+        <v>836455.8876400001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1135026.68624</v>
+        <v>1234878.36099</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1788769.71378</v>
+        <v>1937187.32131</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2042918.22841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2263072.47628</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2037807.594</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>16696.60768</v>
+        <v>18130.11696</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>21176.0695</v>
+        <v>21720.06251</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>22112.56811</v>
+        <v>20856.29643</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>24819.46716</v>
+        <v>25815.17535</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>21708.50622</v>
+        <v>20895.40546</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>22404.13491</v>
+        <v>22395.36729</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>23173.80216</v>
+        <v>22467.15525</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>34262.33091</v>
+        <v>37913.60876</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>33444.49583</v>
+        <v>40089.52632</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>50775.72704</v>
+        <v>51043.12393</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>63377.08317000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>64445.30169</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>124191.429</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>30981.66749</v>
+        <v>36344.75983</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>25803.37739</v>
+        <v>24129.0106</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>25844.76462</v>
+        <v>30126.13814</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>31675.90382</v>
+        <v>47650.74788</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>29626.98295</v>
+        <v>32241.2862</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>29910.5899</v>
+        <v>33737.61008</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>36362.47167</v>
+        <v>44296.88009000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>46231.70173</v>
+        <v>53588.27205000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>54283.85558</v>
+        <v>70162.46347</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>71828.24379000001</v>
+        <v>97837.35550000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>107108.01533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>136430.8194</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>147960.287</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>25360.11871</v>
+        <v>29913.29705</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>18405.44738</v>
+        <v>18350.84588</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>20859.96019</v>
+        <v>24695.76651</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>25666.81174</v>
+        <v>37585.39724000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>21483.71462</v>
+        <v>23971.3014</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>25140.32772</v>
+        <v>27349.03885</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>27121.40161</v>
+        <v>34309.22746</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>32062.6774</v>
+        <v>38181.95873</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>38265.39187000001</v>
+        <v>46749.44951999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>40322.06077</v>
+        <v>64938.82907</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>56727.83883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>84966.80193</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>122924.753</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>3192.85899</v>
+        <v>3755.84764</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5900.26518</v>
+        <v>4266.75033</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3710.997269999999</v>
+        <v>4138.521839999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>4758.924970000001</v>
+        <v>8597.075429999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6138.536529999999</v>
+        <v>6193.85091</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3532.45416</v>
+        <v>4900.99055</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>6264.58069</v>
+        <v>6578.010240000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6345.837259999999</v>
+        <v>7155.021760000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5719.56332</v>
+        <v>12050.52333</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>11855.59755</v>
+        <v>12196.91849</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>9555.041929999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10074.31018</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17111.648</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2428.68979</v>
+        <v>2675.61514</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1497.66483</v>
+        <v>1511.41439</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1273.80716</v>
+        <v>1291.84979</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1250.16711</v>
+        <v>1468.27521</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2004.7318</v>
+        <v>2076.13389</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1237.80802</v>
+        <v>1487.58068</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2976.48937</v>
+        <v>3409.64239</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>7823.18707</v>
+        <v>8251.29156</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>10298.90039</v>
+        <v>11362.49062</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>19650.58547</v>
+        <v>20701.60794</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>40825.13457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>41389.70729000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>7923.886</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2209800.79989</v>
+        <v>2246333.03078</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2003915.21906</v>
+        <v>2004285.31915</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2195991.52402</v>
+        <v>2248757.59135</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2434568.08171</v>
+        <v>2549520.84842</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2820850.69383</v>
+        <v>2928229.97237</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2694147.03889</v>
+        <v>2754689.1805</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2929995.14172</v>
+        <v>3128365.303100001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2848333.514690001</v>
+        <v>3186326.34648</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3953654.69835</v>
+        <v>4302612.17776</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6058666.499</v>
+        <v>6259337.36682</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7015759.088260001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7453132.25806</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7360861.863</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1914310.07046</v>
+        <v>1945310.74163</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1681854.28792</v>
+        <v>1684388.18711</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1814005.11851</v>
+        <v>1857356.82289</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2058002.21822</v>
+        <v>2151850.54096</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2366941.1011</v>
+        <v>2458472.35534</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2216584.38889</v>
+        <v>2263173.26823</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2457766.4117</v>
+        <v>2620350.58537</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2348624.61347</v>
+        <v>2605425.26698</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3388004.61867</v>
+        <v>3657922.95554</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5083415.19639</v>
+        <v>5233515.92467</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5821966.41126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6179076.156110001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6014283.423</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>632740.0701499999</v>
+        <v>675644.94355</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>703918.7387400001</v>
+        <v>729483.66106</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>812581.9547100001</v>
+        <v>877602.8228300001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>819750.9042400001</v>
+        <v>904224.89666</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1229226.51563</v>
+        <v>1320015.05934</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1252213.97513</v>
+        <v>1303912.91294</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1241875.38058</v>
+        <v>1393353.17683</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1347905.55189</v>
+        <v>1526974.80281</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1479405.55925</v>
+        <v>1675270.04602</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3313546.40215</v>
+        <v>3470887.62857</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3969557.74641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4246965.03689</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4165774.862</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1240398.35246</v>
+        <v>1230075.36496</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>924332.04845</v>
+        <v>900988.55995</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>939968.9396500001</v>
+        <v>920069.5010400001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1182455.95088</v>
+        <v>1189427.39246</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1067337.45124</v>
+        <v>1068447.02397</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>899171.9376000001</v>
+        <v>887964.64361</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1127157.33966</v>
+        <v>1137987.60332</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>899648.86941</v>
+        <v>969651.6473300001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1796385.3518</v>
+        <v>1859861.96922</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1568345.8033</v>
+        <v>1572205.67172</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1599067.05948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1677631.75825</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1702103.239</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>40034.05831</v>
+        <v>38053.04508</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>41286.66909</v>
+        <v>41569.36354</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>60172.08505</v>
+        <v>58245.70077</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>55044.75778</v>
+        <v>53867.53816</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>66966.09204999999</v>
+        <v>66428.24094</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>61441.4652</v>
+        <v>67203.47416</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>84269.40481000001</v>
+        <v>84691.99931999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>92765.17628</v>
+        <v>99294.04525</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>106656.84285</v>
+        <v>115206.20851</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>178958.95108</v>
+        <v>168825.63695</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>227046.87513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>228507.30285</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>131978.407</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1137.58954</v>
+        <v>1537.38804</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>12316.83164</v>
+        <v>12346.60256</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1282.1391</v>
+        <v>1438.79825</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>750.6053199999999</v>
+        <v>4330.71368</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3411.04218</v>
+        <v>3582.03109</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3757.01096</v>
+        <v>4092.23752</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4464.28665</v>
+        <v>4317.8059</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>8305.015890000001</v>
+        <v>9504.77159</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5556.86477</v>
+        <v>7584.731789999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>22564.03986</v>
+        <v>21596.98743</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>26294.73024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>25972.05812</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>14426.915</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>295490.7294299999</v>
+        <v>301022.28915</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>322060.93114</v>
+        <v>319897.13204</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>381986.40551</v>
+        <v>391400.76846</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>376565.86349</v>
+        <v>397670.30746</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>453909.59273</v>
+        <v>469757.61703</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>477562.65</v>
+        <v>491515.91227</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>472228.73002</v>
+        <v>508014.71773</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>499708.90122</v>
+        <v>580901.0795</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>565650.0796800001</v>
+        <v>644689.22222</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>975251.30261</v>
+        <v>1025821.44215</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1193792.677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1274056.10195</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1346578.44</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>206284.61229</v>
+        <v>207124.57104</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>233627.66209</v>
+        <v>229370.53319</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>271987.42658</v>
+        <v>274653.56573</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>279801.33835</v>
+        <v>293091.33792</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>351511.71276</v>
+        <v>353132.30747</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>356666.5407</v>
+        <v>359155.18262</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>371767.72543</v>
+        <v>382660.78426</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>388046.62769</v>
+        <v>430827.3883</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>431639.87959</v>
+        <v>480864.40322</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>642504.23751</v>
+        <v>641849.23657</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>777839.2924500001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>815608.74981</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>786446.047</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1607.48689</v>
+        <v>1614.9879</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1904.17723</v>
+        <v>1900.87777</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2139.97586</v>
+        <v>2391.8613</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4532.82247</v>
+        <v>4359.869549999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5882.43817</v>
+        <v>4769.74539</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6134.60772</v>
+        <v>5694.53612</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>7515.225749999999</v>
+        <v>7848.714209999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5809.221320000001</v>
+        <v>6877.483539999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2647.11773</v>
+        <v>4228.40091</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>22998.71856</v>
+        <v>22462.96241</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>14087.33164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14155.73413</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>11138.401</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>54929.11405999999</v>
+        <v>59269.73765</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>64630.29047000001</v>
+        <v>65476.08624</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>73891.23585</v>
+        <v>78264.02506</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>74456.26418</v>
+        <v>85644.20101999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>94214.62397</v>
+        <v>101159.67699</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>100807.13527</v>
+        <v>104290.93416</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>99711.39874</v>
+        <v>107353.9317</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>100431.28505</v>
+        <v>127456.95109</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>111296.2775</v>
+        <v>143429.19167</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>188103.7775</v>
+        <v>196455.37136</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>241455.35516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>261217.49819</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>251295.433</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>149748.01134</v>
+        <v>146239.84549</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>167093.19439</v>
+        <v>161993.56918</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>195956.21487</v>
+        <v>193997.67937</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>200812.2517</v>
+        <v>203087.26735</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>251414.65062</v>
+        <v>247202.88509</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>249724.79771</v>
+        <v>249169.71234</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>264541.10094</v>
+        <v>267458.13835</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>281806.12132</v>
+        <v>296492.95367</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>317696.48436</v>
+        <v>333206.81064</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>431401.74145</v>
+        <v>422930.9028</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>522296.60565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>540235.51749</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>524012.213</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>89206.11713999999</v>
+        <v>93897.71811000002</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>88433.26905</v>
+        <v>90526.59884999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>109998.97893</v>
+        <v>116747.20273</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>96764.52514</v>
+        <v>104578.96954</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>102397.87997</v>
+        <v>116625.30956</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>120896.1093</v>
+        <v>132360.72965</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>100461.00459</v>
+        <v>125353.93347</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>111662.27353</v>
+        <v>150073.6912</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>134010.20009</v>
+        <v>163824.819</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>332747.0651</v>
+        <v>383972.2055800001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>415953.38455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>458447.35214</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>560132.393</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>42290.27753</v>
+        <v>48008.06189</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>40264.81051</v>
+        <v>39233.00739999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>51839.32662</v>
+        <v>56136.31345</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>31494.88523</v>
+        <v>37235.79062000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>67214.40844000001</v>
+        <v>77125.77054</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>51994.97587</v>
+        <v>56919.31364</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>79965.09322</v>
+        <v>90602.44828999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>68008.74734999999</v>
+        <v>78798.0374</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>73982.29961999999</v>
+        <v>92231.7448</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>393988.89482</v>
+        <v>448976.328</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>192167.804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>262755.17378</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>386975.222</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>28.92698</v>
@@ -1778,7 +1789,7 @@
         <v>35.76146</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>75.02905</v>
+        <v>75.88533</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>276.57511</v>
@@ -1790,22 +1801,27 @@
         <v>273.23849</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>414.82664</v>
+        <v>317.50367</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>258.66816</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>479.76532</v>
+        <v>1417.48932</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>203.8533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>951.48424</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1192.408</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>4.52883</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>80.09961</v>
+        <v>78.98146000000001</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>152.62806</v>
@@ -1826,7 +1842,7 @@
         <v>319.15665</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>200.24761</v>
+        <v>226.31308</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>120.91273</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>112.15939</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>150.186</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1320.53121</v>
+        <v>1559.00315</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1786.66941</v>
+        <v>1803.91739</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1998.89347</v>
+        <v>2061.80729</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1920.32786</v>
+        <v>2191.43701</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2695.11524</v>
+        <v>3030.1075</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3004.94167</v>
+        <v>3250.36953</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2548.83219</v>
+        <v>4444.29745</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3279.62945</v>
+        <v>3481.41734</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2943.6615</v>
+        <v>3371.22452</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>9051.920370000002</v>
+        <v>10361.72792</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>9704.080489999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14421.028</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6657.421</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2429.87086</v>
+        <v>2334.81758</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>562.55529</v>
+        <v>438.94124</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>589.5558100000001</v>
+        <v>602.1350600000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>67.89095999999999</v>
+        <v>49.6685</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>28.57524</v>
+        <v>105.60377</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>536.67444</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>605.7528400000001</v>
+        <v>934.2738400000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6.8</v>
+        <v>269.64589</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>85.54075</v>
+        <v>13.46115</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>700.46946</v>
+        <v>700.4583200000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>168.82553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>271.36304</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7357.776</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>168.48076</v>
+        <v>153.48076</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>735.99017</v>
+        <v>770.02547</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>347.37589</v>
+        <v>380.9185699999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>135.54876</v>
+        <v>195.73682</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>263.06989</v>
+        <v>274.91707</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>246.65579</v>
+        <v>199.71401</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>118.0722</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>60.99774</v>
+        <v>66.71387</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>837.77609</v>
+        <v>863.3551600000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>796.08026</v>
+        <v>1794.57931</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>630.70187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1205.05524</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2455.527</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>182.04113</v>
+        <v>190.88314</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>304.82254</v>
+        <v>248.45285</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>386.1858100000001</v>
+        <v>382.87767</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>91.55448000000001</v>
+        <v>89.08302999999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>105.19905</v>
+        <v>517.9682700000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>275.11801</v>
+        <v>272.79036</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>223.26261</v>
+        <v>219.67937</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>523.60078</v>
+        <v>203.42563</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>598.1198699999999</v>
+        <v>401.7642199999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>468.30175</v>
+        <v>4181.0006</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>662.26232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>622.1593399999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>891.679</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>23654.04954</v>
+        <v>31552.72857</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>20574.7673</v>
+        <v>21516.27</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>27056.02416</v>
+        <v>32677.89034</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>12683.91811</v>
+        <v>17472.21759</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>43035.82237</v>
+        <v>53271.02482999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>27640.28411</v>
+        <v>29290.97006</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>50737.2312</v>
+        <v>57825.84310999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>35687.37852000001</v>
+        <v>44193.13329</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>34158.93626</v>
+        <v>44563.93336</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>252961.01573</v>
+        <v>312263.53874</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>122563.26926</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>159248.48196</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>236398.342</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>358.88243</v>
@@ -2048,13 +2094,13 @@
         <v>284.80049</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>66.16614999999999</v>
+        <v>190.90703</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>180.9486</v>
+        <v>206.01602</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>276.91856</v>
+        <v>387.27574</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>602.35734</v>
@@ -2066,217 +2112,247 @@
         <v>256.65213</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>815.4590999999999</v>
+        <v>910.9441</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>2818.5308</v>
+        <v>2054.89289</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>968.0673400000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>968.0673399999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>840.345</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>5722.40817</v>
+        <v>5220.99758</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>8548.141600000001</v>
+        <v>7391.93678</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>11760.18049</v>
+        <v>11546.52631</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>6776.17985</v>
+        <v>6634.17912</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>10224.06674</v>
+        <v>9740.140310000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>10024.24376</v>
+        <v>9715.611010000001</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>12017.17246</v>
+        <v>12748.56564</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>15858.49659</v>
+        <v>17962.04922</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>21856.79246</v>
+        <v>28964.97484</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>95305.63400000001</v>
+        <v>88395.14844</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>31895.98671</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>34470.5775</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>107399.733</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8425.086449999999</v>
+        <v>6608.3417</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7448.406460000001</v>
+        <v>6760.005929999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9594.654550000001</v>
+        <v>8252.96089</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>9483.387949999998</v>
+        <v>10242.58574</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>10156.43818</v>
+        <v>9369.52988</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>8770.669309999999</v>
+        <v>12156.79545</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>12658.16358</v>
+        <v>13229.04507</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>11799.45277</v>
+        <v>11926.58363</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>12275.70741</v>
+        <v>12731.78127</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>31316.16753</v>
+        <v>27716.48286</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>25258.59779</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>50484.79773000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>23631.805</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>43298.91163999999</v>
+        <v>57010.48948</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>40280.23230999999</v>
+        <v>40817.38536</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>51766.09871</v>
+        <v>57304.63818999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>23639.37059</v>
+        <v>31724.44295</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>44771.59867</v>
+        <v>55673.13378</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>41856.57222</v>
+        <v>45184.60848</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>61726.53438</v>
+        <v>73512.10900999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>49713.11605</v>
+        <v>68706.76226999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>55738.28184</v>
+        <v>74125.84823</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>382956.14</v>
+        <v>440422.41849</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>173208.71576</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>205518.87848</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>295377.495</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2333.346880000001</v>
+        <v>2275.04522</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2124.28437</v>
+        <v>2055.33623</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1519.27522</v>
+        <v>1611.84402</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1341.45896</v>
+        <v>1454.83983</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1360.40645</v>
+        <v>1423.29869</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1939.208</v>
+        <v>1928.11197</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1762.19965</v>
+        <v>1805.04871</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2234.11734</v>
+        <v>3883.39674</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4492.80034</v>
+        <v>4591.769449999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2950.37408</v>
+        <v>3421.39053</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5123.79514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5643.28242</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9401.806</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2591.79809</v>
+        <v>3025.58689</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2386.18296</v>
+        <v>2442.00796</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1216.07835</v>
+        <v>1418.51237</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1877.04019</v>
+        <v>3175.938439999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3602.86443</v>
+        <v>3856.22833</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3066.2751</v>
+        <v>2676.68557</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3170.856560000001</v>
+        <v>3281.48553</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2591.49385</v>
+        <v>3589.23941</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3899.05362</v>
+        <v>3198.84535</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>8420.81142</v>
+        <v>9094.307070000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7264.044059999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7287.88631</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11115.645</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>507.49744</v>
+        <v>505.85136</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>1076.68472</v>
@@ -2285,13 +2361,13 @@
         <v>228.48879</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>11.96721</v>
+        <v>34.13947</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>29.52927</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>55.44432</v>
+        <v>55.39005</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>72.95192</v>
@@ -2300,7 +2376,7 @@
         <v>8.661940000000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>39.55151</v>
+        <v>38.276</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>114.55871</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>63.87994</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>56.935</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>28765.1262</v>
+        <v>42464.41022999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>22656.54698</v>
+        <v>22157.79231</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>30242.84543</v>
+        <v>34743.70511</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>12985.5762</v>
+        <v>18648.04095</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>27586.84929</v>
+        <v>38066.3585</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>25182.42999</v>
+        <v>29035.65047</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>44536.0287</v>
+        <v>54637.70915</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>32588.67973</v>
+        <v>48148.58096</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>33586.67623999999</v>
+        <v>51218.49477</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>287169.3115499999</v>
+        <v>339761.31947</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>127900.61974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>156701.07465</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>215860.676</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>413.90314</v>
@@ -2360,13 +2446,13 @@
         <v>378.32928</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>176.62238</v>
+        <v>395.32515</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>205.6989</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>483.93027</v>
+        <v>652.57916</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>560.19753</v>
@@ -2375,7 +2461,7 @@
         <v>378.78194</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>512.30425</v>
+        <v>607.78925</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1014.60912</v>
@@ -2384,634 +2470,717 @@
         <v>3053.65643</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2466.71538</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>3551.915559999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1334.975</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>6395.20228</v>
+        <v>6012.27596</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>10202.43961</v>
+        <v>9906.273429999999</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>16627.35555</v>
+        <v>16948.57246</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>4991.86968</v>
+        <v>5735.99675</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>9104.620020000002</v>
+        <v>9178.8428</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>9728.35722</v>
+        <v>9641.49951</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>9862.65256</v>
+        <v>11520.71044</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>8031.617429999999</v>
+        <v>8925.137769999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>10735.32421</v>
+        <v>11841.47276</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>64405.50157</v>
+        <v>68690.11781</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>20371.60384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>25866.89352</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>50050.196</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2292.03761</v>
+        <v>2313.41668</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1455.76439</v>
+        <v>2800.96143</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1755.43299</v>
+        <v>1958.19029</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2225.75945</v>
+        <v>2469.78861</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2603.39894</v>
+        <v>2466.29703</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1324.66006</v>
+        <v>1287.07338</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1943.06305</v>
+        <v>1815.42132</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3746.24151</v>
+        <v>3543.956199999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1970.2668</v>
+        <v>2222.38078</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>16841.92624</v>
+        <v>16287.06847</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10018.05766</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6403.94608</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>7557.262</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>32287.36204</v>
+        <v>36661.15082</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>28783.20896</v>
+        <v>32761.39303</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>33400.64261</v>
+        <v>39317.6284</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>32310.97383000001</v>
+        <v>40904.21251</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>40789.93973000001</v>
+        <v>48246.21473000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>43273.40621</v>
+        <v>45922.83424</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>50258.21749</v>
+        <v>59411.27193</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>49126.27156</v>
+        <v>71603.86701999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>56247.70952</v>
+        <v>86851.70645999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>159143.67306</v>
+        <v>211866.33875</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>176038.63505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>242867.91527</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>284436.227</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>31710.851</v>
+        <v>35503.94853</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>28099.36861</v>
+        <v>31027.24323</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>32254.20704</v>
+        <v>37553.33930000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>31667.62224</v>
+        <v>39215.36104</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>39889.41477</v>
+        <v>46709.78634000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>41654.0214</v>
+        <v>44590.96932</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>49155.18023000001</v>
+        <v>58411.92294999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>47659.30604</v>
+        <v>70037.83738</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>54260.56288</v>
+        <v>82450.90341</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>155068.88475</v>
+        <v>208128.26661</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>167832.34529</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>235981.78054</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>267853.791</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>576.5110400000001</v>
+        <v>1157.20229</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>683.8403499999999</v>
+        <v>1734.1498</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1146.43557</v>
+        <v>1764.2891</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>643.3515899999999</v>
+        <v>1688.85147</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>900.52496</v>
+        <v>1536.42839</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1619.38481</v>
+        <v>1331.86492</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1103.03726</v>
+        <v>999.34898</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1466.96552</v>
+        <v>1566.02964</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1987.14664</v>
+        <v>4400.80305</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>4074.78831</v>
+        <v>3738.07214</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>8206.289760000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>6886.134730000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>16582.436</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>55910.12099</v>
+        <v>48234.1397</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>59634.63829000001</v>
+        <v>56180.82786</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>76671.56423</v>
+        <v>76261.24959000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>72309.06594999999</v>
+        <v>69186.1047</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>84050.75000999999</v>
+        <v>89831.73159000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>87761.10673999999</v>
+        <v>98172.60057000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>68441.34594</v>
+        <v>83033.00082000002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>80831.63327000001</v>
+        <v>88561.09931000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>96006.50834999999</v>
+        <v>95079.00911000003</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>184636.14686</v>
+        <v>180659.77634</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>258873.83774</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>272815.73217</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>367293.893</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7986.30051</v>
+        <v>12539.98893</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>9311.263499999999</v>
+        <v>8235.934319999998</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>10493.68185</v>
+        <v>10537.14659</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>10280.64425</v>
+        <v>14999.8852</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>15017.10275</v>
+        <v>20128.74439</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>16223.2988</v>
+        <v>15167.88194</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>17183.10425</v>
+        <v>16659.88911</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>18381.47672</v>
+        <v>25112.66325</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>23571.04964</v>
+        <v>25464.41429</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>29369.33195</v>
+        <v>28170.05426</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>68209.30532000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>68507.42997</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>123759.265</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>116.69502</v>
+        <v>123.2931</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>494.13509</v>
+        <v>620.4795</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>106.14244</v>
+        <v>106.93479</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>119.80607</v>
+        <v>124.81959</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>66.08415000000001</v>
+        <v>67.36457</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>148.94605</v>
+        <v>145.59691</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>235.80914</v>
+        <v>284.49144</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>520.36421</v>
+        <v>563.8085800000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>42.6606</v>
+        <v>52.4093</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>33.42144</v>
+        <v>93.59805</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>919.71833</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>778.2776700000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1395.854</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7869.60549</v>
+        <v>12416.69583</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>8817.128409999999</v>
+        <v>7615.45482</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>10387.53941</v>
+        <v>10430.2118</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>10160.83818</v>
+        <v>14875.06561</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>14951.0186</v>
+        <v>20061.37982</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>16074.35275</v>
+        <v>15022.28503</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>16947.29511</v>
+        <v>16375.39767</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>17861.11251</v>
+        <v>24548.85467</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>23528.38904</v>
+        <v>25412.00499</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>29335.91051</v>
+        <v>28076.45621</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>67289.58699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>67729.1523</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>122363.411</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8611.865389999999</v>
+        <v>18865.44533</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>9079.7271</v>
+        <v>8607.58034</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>86322.39296000001</v>
+        <v>82591.16713</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>11546.0937</v>
+        <v>11175.6577</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>15898.6712</v>
+        <v>15946.98247</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>39733.43665</v>
+        <v>41878.87672</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>18504.96201</v>
+        <v>17562.38734</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>53619.74306</v>
+        <v>62789.03870999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>20927.58802</v>
+        <v>24257.07393</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>114377.91081</v>
+        <v>118310.7467</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>53769.00445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>56893.38414</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>46252.12</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1453.27435</v>
+        <v>1391.28594</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>984.5290900000001</v>
+        <v>1225.22685</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2660.02727</v>
+        <v>2753.34887</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1641.65604</v>
+        <v>1685.05123</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2596.20119</v>
+        <v>3838.74164</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3421.15655</v>
+        <v>3894.72703</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4440.246</v>
+        <v>6070.36461</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5711.73695</v>
+        <v>8368.62551</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>3954.05097</v>
+        <v>4235.99917</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>6068.59741</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>11172.58258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>14368.09527</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8755.522999999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>271.99196</v>
+        <v>285.66047</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>639.8290700000001</v>
+        <v>645.3606</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>305.43258</v>
+        <v>765.4580500000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1068.68292</v>
+        <v>917.3430999999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1094.8531</v>
+        <v>749.10429</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>629.33592</v>
+        <v>601.9250800000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>780.56712</v>
+        <v>620.1071800000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1937.88249</v>
+        <v>1913.31704</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>759.56483</v>
+        <v>1175.87114</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1625.55883</v>
+        <v>4924.78458</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1880.49324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1765.98676</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1038.046</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6886.59908</v>
+        <v>17188.49892</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7455.368939999998</v>
+        <v>6736.99289</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>83356.93311000001</v>
+        <v>79072.36021</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8835.75474</v>
+        <v>8573.263370000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>12207.61691</v>
+        <v>11359.13654</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>35682.94418</v>
+        <v>37382.22461</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>13284.14889</v>
+        <v>10871.91555</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>45970.12362000001</v>
+        <v>52507.09616</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>16213.97222</v>
+        <v>18845.20362</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>106683.75457</v>
+        <v>107317.36471</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>40715.92863</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>40759.30211</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>36458.551</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>55284.55611</v>
+        <v>41908.6833</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>59866.17469</v>
+        <v>55809.18184</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>842.853120000001</v>
+        <v>4207.229050000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>71043.6165</v>
+        <v>73010.3322</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>83169.18156</v>
+        <v>94013.49351</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>64250.96889</v>
+        <v>71461.60579000002</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>67119.48817999999</v>
+        <v>82130.50259</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>45593.36693</v>
+        <v>50884.72385000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>98649.96997000001</v>
+        <v>96286.34946999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>99627.568</v>
+        <v>90519.08390000003</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>273314.13861</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>284429.778</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>444801.038</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>12749.45382</v>
+        <v>12348.36932</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>14466.71157</v>
+        <v>13654.14688</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>17003.69109</v>
+        <v>16854.74287</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>16789.798</v>
+        <v>17400.59036</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>19763.93387</v>
+        <v>21213.57056</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>20149.42182</v>
+        <v>20047.96013</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>20083.97182</v>
+        <v>21256.88066</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>21192.73128</v>
+        <v>23462.32633</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>22492.5473</v>
+        <v>24131.23392</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>43279.69181</v>
+        <v>42883.75288</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>49914.07180999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>54124.24473000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>86762.96000000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>42535.10229000001</v>
+        <v>29560.31398</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>45399.46312</v>
+        <v>42155.03496</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-16160.83797</v>
+        <v>-12647.51382</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>54253.8185</v>
+        <v>55609.74184</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>63405.24769</v>
+        <v>72799.92295000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>44101.54707000001</v>
+        <v>51413.64566000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>47035.51636</v>
+        <v>60873.62193</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>24400.63565</v>
+        <v>27422.39751999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>76157.42266999999</v>
+        <v>72155.11555</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>56347.87619</v>
+        <v>47635.33102</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>223400.0668</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>230305.53327</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>358038.078</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1014</v>
+        <v>831</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1111</v>
+        <v>865</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1223</v>
+        <v>963</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1221</v>
+        <v>1006</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1279</v>
+        <v>1033</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1213</v>
+        <v>983</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1266</v>
+        <v>1019</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1294</v>
+        <v>1029</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1357</v>
+        <v>1074</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1074</v>
+        <v>909</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>979</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>